--- a/Docs/Config/STC3115 maximum battery capacity.xlsx
+++ b/Docs/Config/STC3115 maximum battery capacity.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="xl_DCF_History" sheetId="2" state="veryHidden" r:id="rId2"/>
+    <sheet name="Classified as UnClassified" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>REG_CC_CNF = Rsense × Cnom ⁄ 49.556</t>
   </si>
@@ -34,9 +36,6 @@
     <t>FFFF</t>
   </si>
   <si>
-    <t>REG_CC_CNF max</t>
-  </si>
-  <si>
     <t>Cnom max (mAh)</t>
   </si>
   <si>
@@ -49,9 +48,6 @@
     <t>Capacity Cnom (mA.h)</t>
   </si>
   <si>
-    <t>Conclusion: The STC3115 doesn't have a real battery capacity limitation</t>
-  </si>
-  <si>
     <t>REG_CC_CNF (hex)</t>
   </si>
   <si>
@@ -59,13 +55,101 @@
   </si>
   <si>
     <t>Finding capacity Cnom:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> What is the maxium battery capacity that can be measured by STC3115 ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conclusion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The STC3115 doesn't have a real battery capacity limitation</t>
+    </r>
+  </si>
+  <si>
+    <t>CLINAME</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>DONEBY</t>
+  </si>
+  <si>
+    <t>IPADDRESS</t>
+  </si>
+  <si>
+    <t>APPVER</t>
+  </si>
+  <si>
+    <t>RANDOM</t>
+  </si>
+  <si>
+    <t>CHECKSUM</t>
+  </si>
+  <si>
+    <t>፥፾ፓ፼፱ᎃᎃ፹፶፹፵፴</t>
+  </si>
+  <si>
+    <t>ፄጿፁፁጿፂፀፁፈጰጰፁፆፊፂፆ፠፝ጰጸፗ፝፤ጽፇፊፀጹ</t>
+  </si>
+  <si>
+    <t>፣፤፬ፗ፿ᎃ፳፹፾፹፱</t>
+  </si>
+  <si>
+    <t>፣ፓ፪ፓ፧፜ፉፃፄፈ</t>
+  </si>
+  <si>
+    <t>ፆጾፀጾፀጾፀ</t>
+  </si>
+  <si>
+    <t>ፄፄፅፂ</t>
+  </si>
+  <si>
+    <t>REG_CC_CNF max (16bit)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +161,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,13 +318,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>142114</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>18943</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -550,119 +642,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1650</v>
+      </c>
+      <c r="D8" s="5">
+        <v>500</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <f>C7*C8/49.556</f>
+        <v>332.95665509726371</v>
+      </c>
+      <c r="D10" s="5">
+        <f>D7*D8/49.556</f>
+        <v>100.89595609007992</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E7*E8/49.556</f>
+        <v>403.58382436031968</v>
+      </c>
+      <c r="F10" s="6">
+        <f>F7*F8/49.556</f>
+        <v>2017.9191218015983</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
-        <v>1650</v>
-      </c>
-      <c r="D7" s="5">
-        <v>500</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2000</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <f>C6*C7/49.556</f>
-        <v>332.95665509726371</v>
-      </c>
-      <c r="D9" s="5">
-        <f>D6*D7/49.556</f>
-        <v>100.89595609007992</v>
-      </c>
-      <c r="E9" s="5">
-        <f>E6*E7/49.556</f>
-        <v>403.58382436031968</v>
-      </c>
-      <c r="F9" s="6">
-        <f>F6*F7/49.556</f>
-        <v>2017.9191218015983</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="13" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(C9,4))</f>
+      <c r="C11" s="13" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(C10,4))</f>
         <v>0x014C</v>
       </c>
-      <c r="D10" s="13" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(D9,4))</f>
+      <c r="D11" s="13" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(D10,4))</f>
         <v>0x0064</v>
       </c>
-      <c r="E10" s="13" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(E9,4))</f>
+      <c r="E11" s="13" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(E10,4))</f>
         <v>0x0193</v>
       </c>
-      <c r="F10" s="10" t="str">
-        <f>CONCATENATE("0x",DEC2HEX(F9,4))</f>
+      <c r="F11" s="10" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(F10,4))</f>
         <v>0x07E1</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
@@ -671,118 +761,203 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5">
-        <f>HEX2DEC(C17)</f>
-        <v>65535</v>
-      </c>
-      <c r="E17" s="5">
-        <v>65535</v>
-      </c>
-      <c r="F17" s="5">
-        <v>65535</v>
-      </c>
-      <c r="G17" s="6">
-        <v>65535</v>
-      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <f>HEX2DEC(C18)</f>
+        <v>65535</v>
+      </c>
+      <c r="E18" s="5">
+        <v>65535</v>
+      </c>
+      <c r="F18" s="5">
+        <v>65535</v>
+      </c>
+      <c r="G18" s="6">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <v>10</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="5">
         <v>25</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8">
-        <f>D17*49.556 / D18</f>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8">
+        <f>D18*49.556 / D19</f>
         <v>649530.49199999997</v>
       </c>
-      <c r="E20" s="8">
-        <f>E17*49.556 / E18</f>
+      <c r="E21" s="8">
+        <f>E18*49.556 / E19</f>
         <v>324765.24599999998</v>
       </c>
-      <c r="F20" s="8">
-        <f>F17*49.556 / F18</f>
+      <c r="F21" s="8">
+        <f>F18*49.556 / F19</f>
         <v>129906.0984</v>
       </c>
-      <c r="G20" s="9">
-        <f>G17*49.556 / G18</f>
+      <c r="G21" s="9">
+        <f>G18*49.556 / G19</f>
         <v>64953.049200000001</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>11</v>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="DCFIdentifier" r:id="rId1"/>
+  </customProperties>
+</worksheet>
 </file>